--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>884438.9328559963</v>
+        <v>879976.5776073788</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7197684.807001648</v>
+        <v>7197684.807001652</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4862586.04641919</v>
+        <v>4862586.046419189</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>126.2900489478194</v>
       </c>
       <c r="H11" t="n">
-        <v>150.1674146147076</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>156.0770015532557</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>111.367144753341</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I13" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>152.6902671187685</v>
@@ -1584,7 +1584,7 @@
         <v>237.0460627746974</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.4423834897323</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>338.8934916423658</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>57.4312319112042</v>
       </c>
       <c r="T14" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>102.9906083453043</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T16" t="n">
         <v>237.0460627746974</v>
@@ -1824,7 +1824,7 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>183.3229566671551</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.4883219004881</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.2817435681513</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>92.95909467592358</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,10 +2019,10 @@
         <v>163.6910211419383</v>
       </c>
       <c r="H19" t="n">
-        <v>79.92587765310718</v>
+        <v>121.6623657408789</v>
       </c>
       <c r="I19" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>5.949028315574168</v>
       </c>
       <c r="S19" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.43123191120418</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>343.8901807266978</v>
+        <v>50.81277740015764</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T21" t="n">
         <v>136.1178674008418</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>83.8813660142971</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>135.9976291923806</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.949028315574154</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.6902671187685</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.2817435681513</v>
+        <v>14.92083743832532</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>139.8994272426513</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T24" t="n">
         <v>136.1178674008418</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>162.7731161182266</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H25" t="n">
         <v>134.3264464278099</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.949028315574168</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S25" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U25" t="n">
         <v>277.3333288037839</v>
@@ -2538,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>16.6870226263859</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>355.9169507930924</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.4312319112042</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T26" t="n">
         <v>209.9003444702288</v>
@@ -2614,16 +2614,16 @@
         <v>255.6102460520883</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>73.03544230983593</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T27" t="n">
         <v>136.1178674008418</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.21780250128752</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.949028315574168</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S28" t="n">
-        <v>152.6902671187685</v>
+        <v>42.60061040692208</v>
       </c>
       <c r="T28" t="n">
         <v>237.0460627746974</v>
@@ -2772,7 +2772,7 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>341.2815709244804</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>305.1835808410442</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T30" t="n">
         <v>136.1178674008418</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H31" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>25.78755039038205</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.0460627746974</v>
@@ -3009,10 +3009,10 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>34.13991199080303</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>197.7884029286174</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.897287350913507</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T32" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>255.6102460520883</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T33" t="n">
         <v>136.1178674008418</v>
@@ -3189,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H34" t="n">
-        <v>65.00660093199083</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I34" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.949028315574168</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S34" t="n">
         <v>152.6902671187685</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>64.5700252729013</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>42.22382205679349</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>110.2702978043378</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T36" t="n">
         <v>136.1178674008418</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>86.63420365178708</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.6902671187685</v>
       </c>
       <c r="T37" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3333288037839</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>123.6973535683322</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>151.6015171237033</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>21.90267947654291</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T39" t="n">
         <v>136.1178674008418</v>
@@ -3669,16 +3669,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>122.4492352539975</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.949028315574168</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S40" t="n">
         <v>152.6902671187685</v>
       </c>
       <c r="T40" t="n">
-        <v>237.0460627746974</v>
+        <v>58.93689108176564</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3748,16 +3748,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>139.083630329201</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T41" t="n">
-        <v>209.9003444702288</v>
+        <v>152.9565859517027</v>
       </c>
       <c r="U41" t="n">
         <v>255.6102460520883</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>60.05349977133866</v>
       </c>
       <c r="H43" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T43" t="n">
         <v>237.0460627746974</v>
@@ -3957,13 +3957,13 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V43" t="n">
-        <v>107.0260736682191</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>78.28926626547823</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>376.5493001339707</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0.05296229427002231</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6910211419383</v>
+        <v>150.6745912991209</v>
       </c>
       <c r="H46" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>152.6902671187685</v>
       </c>
       <c r="T46" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>618.4072050273833</v>
+        <v>1296.447737048295</v>
       </c>
       <c r="C11" t="n">
-        <v>618.4072050273833</v>
+        <v>1296.447737048295</v>
       </c>
       <c r="D11" t="n">
-        <v>195.1145842123835</v>
+        <v>873.1551162332948</v>
       </c>
       <c r="E11" t="n">
-        <v>195.1145842123835</v>
+        <v>873.1551162332948</v>
       </c>
       <c r="F11" t="n">
-        <v>195.1145842123835</v>
+        <v>448.0309344226951</v>
       </c>
       <c r="G11" t="n">
-        <v>195.1145842123835</v>
+        <v>320.4652284147966</v>
       </c>
       <c r="H11" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I11" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672786</v>
       </c>
       <c r="J11" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922985</v>
       </c>
       <c r="K11" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873423</v>
       </c>
       <c r="L11" t="n">
-        <v>721.1044354144765</v>
+        <v>721.1044354144758</v>
       </c>
       <c r="M11" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N11" t="n">
-        <v>1352.989294408674</v>
+        <v>1352.989294408673</v>
       </c>
       <c r="O11" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255481</v>
       </c>
       <c r="P11" t="n">
-        <v>1901.412983312371</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q11" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R11" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S11" t="n">
-        <v>2113.505005925658</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T11" t="n">
-        <v>2113.505005925658</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U11" t="n">
-        <v>1855.312838196276</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="V11" t="n">
-        <v>1855.312838196276</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="W11" t="n">
-        <v>1855.312838196276</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="X11" t="n">
-        <v>1443.592839364023</v>
+        <v>1701.785007093404</v>
       </c>
       <c r="Y11" t="n">
-        <v>1038.255569318913</v>
+        <v>1296.447737048295</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G12" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H12" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I12" t="n">
-        <v>64.14840690919141</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J12" t="n">
-        <v>144.5298811612101</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K12" t="n">
-        <v>294.6147826485601</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L12" t="n">
-        <v>503.9498672632496</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M12" t="n">
-        <v>751.3795283885233</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N12" t="n">
-        <v>1007.699321192657</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O12" t="n">
-        <v>1477.238310130523</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P12" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q12" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R12" t="n">
         <v>1815.841701345204</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.7744583179958</v>
+        <v>843.9182533880537</v>
       </c>
       <c r="C13" t="n">
-        <v>557.7744583179958</v>
+        <v>671.9456902669697</v>
       </c>
       <c r="D13" t="n">
-        <v>394.4576854447665</v>
+        <v>508.6289173937404</v>
       </c>
       <c r="E13" t="n">
-        <v>228.2494795976201</v>
+        <v>350.9753804712598</v>
       </c>
       <c r="F13" t="n">
-        <v>228.2494795976201</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="G13" t="n">
-        <v>228.2494795976201</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="H13" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I13" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J13" t="n">
-        <v>86.23013562371111</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K13" t="n">
-        <v>169.3817649716271</v>
+        <v>247.303481619848</v>
       </c>
       <c r="L13" t="n">
-        <v>280.6469145595679</v>
+        <v>734.9575247989537</v>
       </c>
       <c r="M13" t="n">
-        <v>574.6703931392694</v>
+        <v>1266.335975966931</v>
       </c>
       <c r="N13" t="n">
-        <v>1089.021092194644</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O13" t="n">
-        <v>1570.860832459529</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P13" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q13" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R13" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S13" t="n">
-        <v>2011.274638730568</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T13" t="n">
-        <v>1771.834171281379</v>
+        <v>1777.843290792059</v>
       </c>
       <c r="U13" t="n">
-        <v>1491.699495722001</v>
+        <v>1777.843290792059</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.699495722001</v>
+        <v>1777.843290792059</v>
       </c>
       <c r="W13" t="n">
-        <v>1216.847091894514</v>
+        <v>1502.990886964572</v>
       </c>
       <c r="X13" t="n">
-        <v>974.2831953403194</v>
+        <v>1260.426990410377</v>
       </c>
       <c r="Y13" t="n">
-        <v>747.9404270300614</v>
+        <v>1034.084222100119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>811.7239251025646</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="C14" t="n">
-        <v>811.7239251025646</v>
+        <v>1720.128860986533</v>
       </c>
       <c r="D14" t="n">
-        <v>811.7239251025646</v>
+        <v>1296.836240171534</v>
       </c>
       <c r="E14" t="n">
-        <v>385.7469852504222</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="F14" t="n">
-        <v>385.7469852504222</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="G14" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H14" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I14" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672786</v>
       </c>
       <c r="J14" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922983</v>
       </c>
       <c r="K14" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873421</v>
       </c>
       <c r="L14" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144756</v>
       </c>
       <c r="M14" t="n">
         <v>1034.139376672043</v>
       </c>
       <c r="N14" t="n">
-        <v>1352.989294408674</v>
+        <v>1352.989294408673</v>
       </c>
       <c r="O14" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255481</v>
       </c>
       <c r="P14" t="n">
-        <v>1901.412983312371</v>
+        <v>1901.412983312369</v>
       </c>
       <c r="Q14" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R14" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S14" t="n">
-        <v>2113.505005925658</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T14" t="n">
-        <v>1901.48445595573</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U14" t="n">
-        <v>1643.292288226347</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="V14" t="n">
-        <v>1643.292288226347</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="W14" t="n">
-        <v>1643.292288226347</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="X14" t="n">
-        <v>1231.572289394095</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="Y14" t="n">
-        <v>1231.572289394095</v>
+        <v>2113.505005925657</v>
       </c>
     </row>
     <row r="15">
@@ -5348,28 +5348,28 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G15" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H15" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I15" t="n">
-        <v>87.60571275360324</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J15" t="n">
-        <v>167.9871870056219</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K15" t="n">
-        <v>318.0720884929719</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L15" t="n">
-        <v>527.4071731076615</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M15" t="n">
-        <v>774.8368342329352</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N15" t="n">
-        <v>1031.156627037069</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O15" t="n">
         <v>1371.782809845618</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>620.4615526873514</v>
+        <v>378.608874124479</v>
       </c>
       <c r="C16" t="n">
-        <v>448.4889895662674</v>
+        <v>378.608874124479</v>
       </c>
       <c r="D16" t="n">
-        <v>448.4889895662674</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="E16" t="n">
-        <v>448.4889895662674</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="F16" t="n">
-        <v>344.4580720457579</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G16" t="n">
-        <v>179.1136062458203</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H16" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I16" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J16" t="n">
         <v>164.151852271932</v>
       </c>
       <c r="K16" t="n">
-        <v>494.5860907338701</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L16" t="n">
-        <v>605.8512403218109</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M16" t="n">
-        <v>1137.229691489788</v>
+        <v>1100.083104618132</v>
       </c>
       <c r="N16" t="n">
-        <v>1253.547467703283</v>
+        <v>1216.400880831626</v>
       </c>
       <c r="O16" t="n">
-        <v>1722.234329837428</v>
+        <v>1570.860832459528</v>
       </c>
       <c r="P16" t="n">
-        <v>2121.000513751126</v>
+        <v>1969.627016373226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R16" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S16" t="n">
-        <v>2165.507231779829</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T16" t="n">
-        <v>1926.06676433064</v>
+        <v>1777.843290792059</v>
       </c>
       <c r="U16" t="n">
-        <v>1645.932088771262</v>
+        <v>1497.708615232681</v>
       </c>
       <c r="V16" t="n">
-        <v>1364.220621379291</v>
+        <v>1312.533911528484</v>
       </c>
       <c r="W16" t="n">
-        <v>1089.368217551804</v>
+        <v>1037.681507700997</v>
       </c>
       <c r="X16" t="n">
-        <v>846.8043209976094</v>
+        <v>795.1176111468026</v>
       </c>
       <c r="Y16" t="n">
-        <v>620.4615526873514</v>
+        <v>568.7748428365446</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1296.447737048295</v>
+        <v>1814.026936416759</v>
       </c>
       <c r="C17" t="n">
-        <v>1296.447737048295</v>
+        <v>1814.026936416759</v>
       </c>
       <c r="D17" t="n">
-        <v>1296.447737048295</v>
+        <v>1390.734315601759</v>
       </c>
       <c r="E17" t="n">
-        <v>870.4707971961531</v>
+        <v>964.7573757496169</v>
       </c>
       <c r="F17" t="n">
-        <v>445.7351185087913</v>
+        <v>539.6331939390171</v>
       </c>
       <c r="G17" t="n">
-        <v>43.43032702581021</v>
+        <v>137.328402456036</v>
       </c>
       <c r="H17" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I17" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672851</v>
       </c>
       <c r="J17" t="n">
         <v>226.1880352922992</v>
       </c>
       <c r="K17" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873425</v>
       </c>
       <c r="L17" t="n">
-        <v>721.1044354144765</v>
+        <v>721.104435414476</v>
       </c>
       <c r="M17" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N17" t="n">
-        <v>1352.989294408674</v>
+        <v>1352.989294408673</v>
       </c>
       <c r="O17" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255481</v>
       </c>
       <c r="P17" t="n">
-        <v>1901.412983312371</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q17" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R17" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S17" t="n">
-        <v>2113.505005925658</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T17" t="n">
-        <v>2113.505005925658</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U17" t="n">
-        <v>2113.505005925658</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="V17" t="n">
-        <v>2113.505005925658</v>
+        <v>1814.026936416759</v>
       </c>
       <c r="W17" t="n">
-        <v>2113.505005925658</v>
+        <v>1814.026936416759</v>
       </c>
       <c r="X17" t="n">
-        <v>1701.785007093405</v>
+        <v>1814.026936416759</v>
       </c>
       <c r="Y17" t="n">
-        <v>1296.447737048295</v>
+        <v>1814.026936416759</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G18" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H18" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I18" t="n">
-        <v>87.60571275360324</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J18" t="n">
-        <v>167.9871870056219</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K18" t="n">
-        <v>533.2819540266169</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L18" t="n">
-        <v>742.6170386413064</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M18" t="n">
-        <v>990.0466997665801</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.366492570714</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O18" t="n">
-        <v>1477.238310130523</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P18" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R18" t="n">
         <v>1815.841701345204</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.6694270872796</v>
+        <v>669.7360514244742</v>
       </c>
       <c r="C19" t="n">
-        <v>533.6968639661956</v>
+        <v>669.7360514244742</v>
       </c>
       <c r="D19" t="n">
-        <v>533.6968639661956</v>
+        <v>669.7360514244742</v>
       </c>
       <c r="E19" t="n">
-        <v>533.6968639661956</v>
+        <v>503.5278455773278</v>
       </c>
       <c r="F19" t="n">
-        <v>361.835089740756</v>
+        <v>331.6660713518881</v>
       </c>
       <c r="G19" t="n">
-        <v>196.4906239408183</v>
+        <v>166.3216055519505</v>
       </c>
       <c r="H19" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I19" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J19" t="n">
-        <v>86.23013562371111</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K19" t="n">
-        <v>169.3817649716271</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L19" t="n">
-        <v>657.0358081507329</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M19" t="n">
-        <v>774.8787788558886</v>
+        <v>1100.083104618132</v>
       </c>
       <c r="N19" t="n">
-        <v>1289.229477911263</v>
+        <v>1614.433803673506</v>
       </c>
       <c r="O19" t="n">
-        <v>1570.860832459529</v>
+        <v>1883.617037032836</v>
       </c>
       <c r="P19" t="n">
-        <v>1969.627016373227</v>
+        <v>1969.627016373226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R19" t="n">
         <v>2165.507231779829</v>
       </c>
       <c r="S19" t="n">
-        <v>2011.274638730568</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="T19" t="n">
-        <v>2011.274638730568</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="U19" t="n">
-        <v>1731.139963171191</v>
+        <v>1885.372556220451</v>
       </c>
       <c r="V19" t="n">
-        <v>1449.428495779219</v>
+        <v>1603.66108882848</v>
       </c>
       <c r="W19" t="n">
-        <v>1174.576091951732</v>
+        <v>1328.808685000993</v>
       </c>
       <c r="X19" t="n">
-        <v>932.0121953975375</v>
+        <v>1086.244788446798</v>
       </c>
       <c r="Y19" t="n">
-        <v>705.6694270872796</v>
+        <v>859.9020201365399</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1295.928469310491</v>
+        <v>1295.004679175933</v>
       </c>
       <c r="C20" t="n">
-        <v>869.027739323791</v>
+        <v>1295.004679175933</v>
       </c>
       <c r="D20" t="n">
-        <v>445.7351185087913</v>
+        <v>871.7120583609337</v>
       </c>
       <c r="E20" t="n">
         <v>445.7351185087913</v>
@@ -5743,28 +5743,28 @@
         <v>445.7351185087913</v>
       </c>
       <c r="G20" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="H20" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I20" t="n">
-        <v>86.09345146672857</v>
+        <v>86.09345146672865</v>
       </c>
       <c r="J20" t="n">
         <v>226.1880352922993</v>
       </c>
       <c r="K20" t="n">
-        <v>444.3985098873425</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L20" t="n">
-        <v>721.1044354144763</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M20" t="n">
         <v>1034.139376672043</v>
       </c>
       <c r="N20" t="n">
-        <v>1352.989294408674</v>
+        <v>1352.989294408673</v>
       </c>
       <c r="O20" t="n">
         <v>1651.903250255482</v>
@@ -5776,28 +5776,28 @@
         <v>2080.956330428339</v>
       </c>
       <c r="R20" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S20" t="n">
-        <v>2113.505005925658</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T20" t="n">
-        <v>1901.48445595573</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U20" t="n">
-        <v>1643.292288226347</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="V20" t="n">
-        <v>1643.292288226347</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="W20" t="n">
-        <v>1295.928469310491</v>
+        <v>2120.190313512573</v>
       </c>
       <c r="X20" t="n">
-        <v>1295.928469310491</v>
+        <v>2120.190313512573</v>
       </c>
       <c r="Y20" t="n">
-        <v>1295.928469310491</v>
+        <v>1714.853043467464</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G21" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H21" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I21" t="n">
-        <v>64.14840690919141</v>
+        <v>64.14840690919138</v>
       </c>
       <c r="J21" t="n">
         <v>144.5298811612101</v>
       </c>
       <c r="K21" t="n">
-        <v>294.6147826485602</v>
+        <v>294.61478264856</v>
       </c>
       <c r="L21" t="n">
-        <v>742.6170386413057</v>
+        <v>503.9498672632495</v>
       </c>
       <c r="M21" t="n">
-        <v>990.0466997665795</v>
+        <v>751.3795283885232</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.366492570713</v>
+        <v>1007.699321192657</v>
       </c>
       <c r="O21" t="n">
-        <v>1477.238310130523</v>
+        <v>1238.571138752466</v>
       </c>
       <c r="P21" t="n">
-        <v>1659.391674476715</v>
+        <v>1420.724503098658</v>
       </c>
       <c r="Q21" t="n">
         <v>1773.044505227723</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>466.2289596380903</v>
+        <v>524.6360069909001</v>
       </c>
       <c r="C22" t="n">
-        <v>381.5003070983962</v>
+        <v>352.6634438698161</v>
       </c>
       <c r="D22" t="n">
-        <v>381.5003070983962</v>
+        <v>352.6634438698161</v>
       </c>
       <c r="E22" t="n">
-        <v>215.2921012512498</v>
+        <v>352.6634438698161</v>
       </c>
       <c r="F22" t="n">
-        <v>43.43032702581021</v>
+        <v>180.8016696443765</v>
       </c>
       <c r="G22" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="H22" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I22" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="J22" t="n">
-        <v>164.151852271932</v>
+        <v>164.1518522719319</v>
       </c>
       <c r="K22" t="n">
-        <v>494.5860907338701</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L22" t="n">
-        <v>605.8512403218109</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M22" t="n">
-        <v>723.6942110269667</v>
+        <v>1513.618585080953</v>
       </c>
       <c r="N22" t="n">
-        <v>1089.021092194644</v>
+        <v>1629.936361294448</v>
       </c>
       <c r="O22" t="n">
-        <v>1570.860832459529</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P22" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q22" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R22" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S22" t="n">
-        <v>2011.274638730568</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T22" t="n">
-        <v>1771.834171281379</v>
+        <v>1777.84329079206</v>
       </c>
       <c r="U22" t="n">
-        <v>1491.699495722001</v>
+        <v>1497.708615232682</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.98802833003</v>
+        <v>1215.997147840711</v>
       </c>
       <c r="W22" t="n">
-        <v>935.1356245025431</v>
+        <v>941.1447440132238</v>
       </c>
       <c r="X22" t="n">
-        <v>692.5717279483482</v>
+        <v>941.1447440132238</v>
       </c>
       <c r="Y22" t="n">
-        <v>466.2289596380903</v>
+        <v>714.8019757029658</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1294.151921134391</v>
+        <v>1759.796352458257</v>
       </c>
       <c r="C23" t="n">
-        <v>1294.151921134391</v>
+        <v>1332.895622471558</v>
       </c>
       <c r="D23" t="n">
-        <v>870.8593003193911</v>
+        <v>909.6030016565578</v>
       </c>
       <c r="E23" t="n">
-        <v>870.8593003193911</v>
+        <v>483.6260618044154</v>
       </c>
       <c r="F23" t="n">
-        <v>445.7351185087913</v>
+        <v>58.50187999381558</v>
       </c>
       <c r="G23" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="H23" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I23" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672877</v>
       </c>
       <c r="J23" t="n">
         <v>226.1880352922992</v>
       </c>
       <c r="K23" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873434</v>
       </c>
       <c r="L23" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144767</v>
       </c>
       <c r="M23" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N23" t="n">
         <v>1352.989294408674</v>
@@ -6007,34 +6007,34 @@
         <v>1651.903250255482</v>
       </c>
       <c r="P23" t="n">
-        <v>1901.412983312371</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q23" t="n">
         <v>2080.956330428339</v>
       </c>
       <c r="R23" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S23" t="n">
-        <v>2113.505005925658</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T23" t="n">
-        <v>2113.505005925658</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U23" t="n">
-        <v>1855.312838196276</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="V23" t="n">
-        <v>1855.312838196276</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="W23" t="n">
-        <v>1714.000285425921</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="X23" t="n">
-        <v>1714.000285425921</v>
+        <v>1759.796352458257</v>
       </c>
       <c r="Y23" t="n">
-        <v>1714.000285425921</v>
+        <v>1759.796352458257</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G24" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H24" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I24" t="n">
-        <v>64.14840690919141</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J24" t="n">
-        <v>144.5298811612101</v>
+        <v>277.7415522543613</v>
       </c>
       <c r="K24" t="n">
-        <v>294.6147826485601</v>
+        <v>427.8264537417112</v>
       </c>
       <c r="L24" t="n">
-        <v>503.9498672632496</v>
+        <v>637.1615383564008</v>
       </c>
       <c r="M24" t="n">
-        <v>751.3795283885233</v>
+        <v>884.5911994816745</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.366492570714</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O24" t="n">
-        <v>1477.238310130523</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P24" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q24" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R24" t="n">
         <v>1815.841701345204</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>515.503458375214</v>
+        <v>688.2924093922816</v>
       </c>
       <c r="C25" t="n">
-        <v>343.53089525413</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="D25" t="n">
-        <v>343.53089525413</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="E25" t="n">
-        <v>343.53089525413</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="F25" t="n">
-        <v>343.53089525413</v>
+        <v>344.4580720457579</v>
       </c>
       <c r="G25" t="n">
         <v>179.1136062458203</v>
       </c>
       <c r="H25" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I25" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="J25" t="n">
-        <v>86.23013562371111</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K25" t="n">
-        <v>346.8757035582113</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L25" t="n">
-        <v>834.5297467373171</v>
+        <v>657.0358081507328</v>
       </c>
       <c r="M25" t="n">
-        <v>952.3727174424728</v>
+        <v>1188.41425931871</v>
       </c>
       <c r="N25" t="n">
-        <v>1466.723416497847</v>
+        <v>1702.764958374085</v>
       </c>
       <c r="O25" t="n">
-        <v>1570.860832459529</v>
+        <v>1806.902374335766</v>
       </c>
       <c r="P25" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q25" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R25" t="n">
         <v>2165.507231779829</v>
       </c>
       <c r="S25" t="n">
-        <v>2011.274638730568</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="T25" t="n">
-        <v>2011.274638730568</v>
+        <v>1926.06676433064</v>
       </c>
       <c r="U25" t="n">
-        <v>1731.139963171191</v>
+        <v>1645.932088771262</v>
       </c>
       <c r="V25" t="n">
-        <v>1449.428495779219</v>
+        <v>1364.220621379291</v>
       </c>
       <c r="W25" t="n">
-        <v>1174.576091951732</v>
+        <v>1347.3650429688</v>
       </c>
       <c r="X25" t="n">
-        <v>932.0121953975375</v>
+        <v>1104.801146414605</v>
       </c>
       <c r="Y25" t="n">
-        <v>705.6694270872796</v>
+        <v>878.4583781043473</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>826.2350193489841</v>
+        <v>1149.670749884478</v>
       </c>
       <c r="C26" t="n">
-        <v>826.2350193489841</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="D26" t="n">
-        <v>402.9423985339844</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="E26" t="n">
-        <v>402.9423985339844</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="F26" t="n">
-        <v>43.43032702581019</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G26" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H26" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I26" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672851</v>
       </c>
       <c r="J26" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922991</v>
       </c>
       <c r="K26" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873428</v>
       </c>
       <c r="L26" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144763</v>
       </c>
       <c r="M26" t="n">
         <v>1034.139376672043</v>
       </c>
       <c r="N26" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O26" t="n">
-        <v>1651.903250255481</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P26" t="n">
         <v>1901.41298331237</v>
       </c>
       <c r="Q26" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R26" t="n">
         <v>2171.51635129051</v>
@@ -6259,19 +6259,19 @@
         <v>1901.484455955729</v>
       </c>
       <c r="U26" t="n">
-        <v>1643.292288226346</v>
+        <v>1643.292288226347</v>
       </c>
       <c r="V26" t="n">
-        <v>1643.292288226346</v>
+        <v>1569.519114176008</v>
       </c>
       <c r="W26" t="n">
-        <v>1643.292288226346</v>
+        <v>1569.519114176008</v>
       </c>
       <c r="X26" t="n">
-        <v>1231.572289394094</v>
+        <v>1569.519114176008</v>
       </c>
       <c r="Y26" t="n">
-        <v>826.2350193489841</v>
+        <v>1569.519114176008</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>86.29446917954513</v>
       </c>
       <c r="H27" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I27" t="n">
         <v>64.14840690919138</v>
       </c>
       <c r="J27" t="n">
-        <v>144.5298811612101</v>
+        <v>383.1970525392671</v>
       </c>
       <c r="K27" t="n">
-        <v>294.6147826485601</v>
+        <v>533.2819540266171</v>
       </c>
       <c r="L27" t="n">
-        <v>503.9498672632496</v>
+        <v>742.6170386413066</v>
       </c>
       <c r="M27" t="n">
-        <v>990.0466997665801</v>
+        <v>990.0466997665803</v>
       </c>
       <c r="N27" t="n">
         <v>1246.366492570714</v>
       </c>
       <c r="O27" t="n">
-        <v>1477.238310130523</v>
+        <v>1477.238310130524</v>
       </c>
       <c r="P27" t="n">
         <v>1659.391674476716</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>673.9830507661337</v>
+        <v>387.2646643723338</v>
       </c>
       <c r="C28" t="n">
-        <v>673.9830507661337</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="D28" t="n">
-        <v>510.6662778929044</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="E28" t="n">
-        <v>344.4580720457579</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="F28" t="n">
-        <v>344.4580720457579</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="G28" t="n">
-        <v>179.1136062458203</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="H28" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I28" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="J28" t="n">
-        <v>86.23013562371109</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K28" t="n">
-        <v>331.3731459372689</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L28" t="n">
-        <v>819.0271891163746</v>
+        <v>507.4216439224984</v>
       </c>
       <c r="M28" t="n">
-        <v>1350.405640284352</v>
+        <v>1038.800095090476</v>
       </c>
       <c r="N28" t="n">
-        <v>1466.723416497846</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O28" t="n">
-        <v>1570.860832459528</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P28" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q28" t="n">
         <v>2171.51635129051</v>
@@ -6411,25 +6411,25 @@
         <v>2165.507231779829</v>
       </c>
       <c r="S28" t="n">
-        <v>2011.274638730567</v>
+        <v>2122.476312176877</v>
       </c>
       <c r="T28" t="n">
-        <v>1771.834171281378</v>
+        <v>1883.035844727688</v>
       </c>
       <c r="U28" t="n">
-        <v>1491.699495722</v>
+        <v>1602.90116916831</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.699495722</v>
+        <v>1321.189701776339</v>
       </c>
       <c r="W28" t="n">
-        <v>1216.847091894513</v>
+        <v>1046.337297948852</v>
       </c>
       <c r="X28" t="n">
-        <v>974.2831953403185</v>
+        <v>803.7734013946574</v>
       </c>
       <c r="Y28" t="n">
-        <v>747.9404270300605</v>
+        <v>577.4306330843995</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>468.55450883641</v>
+        <v>1148.74695974992</v>
       </c>
       <c r="C29" t="n">
-        <v>468.55450883641</v>
+        <v>1148.74695974992</v>
       </c>
       <c r="D29" t="n">
-        <v>468.55450883641</v>
+        <v>1148.74695974992</v>
       </c>
       <c r="E29" t="n">
-        <v>468.55450883641</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="F29" t="n">
-        <v>43.43032702581021</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G29" t="n">
-        <v>43.43032702581021</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H29" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I29" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672848</v>
       </c>
       <c r="J29" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922991</v>
       </c>
       <c r="K29" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873429</v>
       </c>
       <c r="L29" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144763</v>
       </c>
       <c r="M29" t="n">
         <v>1034.139376672043</v>
       </c>
       <c r="N29" t="n">
-        <v>1352.989294408674</v>
+        <v>1352.989294408673</v>
       </c>
       <c r="O29" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255481</v>
       </c>
       <c r="P29" t="n">
-        <v>1901.412983312371</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q29" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R29" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S29" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T29" t="n">
-        <v>1959.495801320582</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U29" t="n">
-        <v>1959.495801320582</v>
+        <v>1913.324183561127</v>
       </c>
       <c r="V29" t="n">
-        <v>1602.006386446832</v>
+        <v>1568.59532404145</v>
       </c>
       <c r="W29" t="n">
-        <v>1602.006386446832</v>
+        <v>1568.59532404145</v>
       </c>
       <c r="X29" t="n">
-        <v>1293.74014317305</v>
+        <v>1568.59532404145</v>
       </c>
       <c r="Y29" t="n">
-        <v>888.4028731279401</v>
+        <v>1568.59532404145</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G30" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H30" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I30" t="n">
-        <v>64.14840690919141</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J30" t="n">
-        <v>144.5298811612101</v>
+        <v>277.7415522543613</v>
       </c>
       <c r="K30" t="n">
-        <v>294.6147826485601</v>
+        <v>427.8264537417112</v>
       </c>
       <c r="L30" t="n">
-        <v>503.9498672632496</v>
+        <v>637.1615383564008</v>
       </c>
       <c r="M30" t="n">
-        <v>751.3795283885233</v>
+        <v>884.5911994816745</v>
       </c>
       <c r="N30" t="n">
-        <v>1007.699321192657</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O30" t="n">
-        <v>1477.238310130523</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P30" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q30" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R30" t="n">
         <v>1815.841701345204</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>516.430635166842</v>
+        <v>908.1821395900029</v>
       </c>
       <c r="C31" t="n">
-        <v>344.4580720457579</v>
+        <v>736.2095764689188</v>
       </c>
       <c r="D31" t="n">
-        <v>344.4580720457579</v>
+        <v>572.8928035956895</v>
       </c>
       <c r="E31" t="n">
-        <v>344.4580720457579</v>
+        <v>406.6845977485431</v>
       </c>
       <c r="F31" t="n">
-        <v>344.4580720457579</v>
+        <v>234.8228235231035</v>
       </c>
       <c r="G31" t="n">
-        <v>179.1136062458203</v>
+        <v>69.4783577231658</v>
       </c>
       <c r="H31" t="n">
-        <v>43.43032702581021</v>
+        <v>69.4783577231658</v>
       </c>
       <c r="I31" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J31" t="n">
-        <v>86.23013562371111</v>
+        <v>164.1518522719319</v>
       </c>
       <c r="K31" t="n">
-        <v>169.3817649716271</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L31" t="n">
-        <v>657.0358081507329</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M31" t="n">
-        <v>887.4265977125772</v>
+        <v>1100.083104618132</v>
       </c>
       <c r="N31" t="n">
-        <v>1401.777296767952</v>
+        <v>1614.433803673506</v>
       </c>
       <c r="O31" t="n">
-        <v>1883.617037032837</v>
+        <v>1883.617037032836</v>
       </c>
       <c r="P31" t="n">
-        <v>1969.627016373227</v>
+        <v>1969.627016373226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R31" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S31" t="n">
-        <v>2011.274638730568</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T31" t="n">
-        <v>1771.834171281379</v>
+        <v>1932.07588384132</v>
       </c>
       <c r="U31" t="n">
-        <v>1491.699495722001</v>
+        <v>1651.941208281943</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.98802833003</v>
+        <v>1651.941208281943</v>
       </c>
       <c r="W31" t="n">
-        <v>1175.50326874336</v>
+        <v>1377.088804454456</v>
       </c>
       <c r="X31" t="n">
-        <v>932.9393721891656</v>
+        <v>1134.524907900261</v>
       </c>
       <c r="Y31" t="n">
-        <v>706.5966038789077</v>
+        <v>908.1821395900029</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>469.4072668779527</v>
+        <v>1092.486153277414</v>
       </c>
       <c r="C32" t="n">
-        <v>469.4072668779527</v>
+        <v>1092.486153277414</v>
       </c>
       <c r="D32" t="n">
-        <v>469.4072668779527</v>
+        <v>669.1935324624146</v>
       </c>
       <c r="E32" t="n">
-        <v>43.43032702581021</v>
+        <v>243.2165926102722</v>
       </c>
       <c r="F32" t="n">
-        <v>43.43032702581021</v>
+        <v>243.2165926102722</v>
       </c>
       <c r="G32" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H32" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I32" t="n">
-        <v>86.09345146672877</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J32" t="n">
-        <v>226.1880352922994</v>
+        <v>226.1880352922988</v>
       </c>
       <c r="K32" t="n">
-        <v>444.3985098873432</v>
+        <v>444.3985098873425</v>
       </c>
       <c r="L32" t="n">
-        <v>721.1044354144767</v>
+        <v>721.1044354144758</v>
       </c>
       <c r="M32" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N32" t="n">
-        <v>1352.989294408674</v>
+        <v>1352.989294408673</v>
       </c>
       <c r="O32" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255481</v>
       </c>
       <c r="P32" t="n">
         <v>1901.41298331237</v>
       </c>
       <c r="Q32" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R32" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S32" t="n">
-        <v>2167.579697400699</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T32" t="n">
-        <v>1955.559147430771</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U32" t="n">
-        <v>1697.366979701389</v>
+        <v>1855.312838196275</v>
       </c>
       <c r="V32" t="n">
-        <v>1697.366979701389</v>
+        <v>1497.823423322524</v>
       </c>
       <c r="W32" t="n">
-        <v>1300.975630001735</v>
+        <v>1497.823423322524</v>
       </c>
       <c r="X32" t="n">
-        <v>889.2556311694827</v>
+        <v>1497.823423322524</v>
       </c>
       <c r="Y32" t="n">
-        <v>889.2556311694827</v>
+        <v>1092.486153277414</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G33" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H33" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I33" t="n">
-        <v>64.14840690919141</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J33" t="n">
-        <v>144.5298811612101</v>
+        <v>277.7415522543613</v>
       </c>
       <c r="K33" t="n">
-        <v>294.6147826485601</v>
+        <v>427.8264537417112</v>
       </c>
       <c r="L33" t="n">
-        <v>503.9498672632496</v>
+        <v>637.1615383564008</v>
       </c>
       <c r="M33" t="n">
-        <v>751.3795283885233</v>
+        <v>884.5911994816745</v>
       </c>
       <c r="N33" t="n">
-        <v>1007.699321192657</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O33" t="n">
-        <v>1477.238310130523</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P33" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q33" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R33" t="n">
         <v>1815.841701345204</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>518.6268874802195</v>
+        <v>679.7474080400713</v>
       </c>
       <c r="C34" t="n">
-        <v>518.6268874802195</v>
+        <v>507.7748449189872</v>
       </c>
       <c r="D34" t="n">
-        <v>518.6268874802195</v>
+        <v>344.4580720457579</v>
       </c>
       <c r="E34" t="n">
-        <v>518.6268874802195</v>
+        <v>344.4580720457579</v>
       </c>
       <c r="F34" t="n">
-        <v>346.7651132547799</v>
+        <v>344.4580720457579</v>
       </c>
       <c r="G34" t="n">
-        <v>181.4206474548422</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="H34" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I34" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J34" t="n">
-        <v>86.23013562371111</v>
+        <v>164.1518522719319</v>
       </c>
       <c r="K34" t="n">
-        <v>169.3817649716271</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L34" t="n">
-        <v>441.3248648131722</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M34" t="n">
-        <v>972.7033159811497</v>
+        <v>1513.618585080953</v>
       </c>
       <c r="N34" t="n">
-        <v>1089.021092194644</v>
+        <v>1930.853118449053</v>
       </c>
       <c r="O34" t="n">
-        <v>1570.860832459529</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P34" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q34" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R34" t="n">
         <v>2165.507231779829</v>
       </c>
       <c r="S34" t="n">
-        <v>2011.274638730568</v>
+        <v>2011.274638730567</v>
       </c>
       <c r="T34" t="n">
-        <v>1771.834171281379</v>
+        <v>1771.834171281378</v>
       </c>
       <c r="U34" t="n">
-        <v>1491.699495722001</v>
+        <v>1491.699495722</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.98802833003</v>
+        <v>1209.988028330029</v>
       </c>
       <c r="W34" t="n">
-        <v>935.1356245025431</v>
+        <v>935.1356245025422</v>
       </c>
       <c r="X34" t="n">
-        <v>935.1356245025431</v>
+        <v>935.1356245025422</v>
       </c>
       <c r="Y34" t="n">
-        <v>708.7928561922852</v>
+        <v>869.9133767521369</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>896.3079968646525</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="C35" t="n">
-        <v>469.4072668779527</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="D35" t="n">
-        <v>469.4072668779527</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="E35" t="n">
-        <v>43.43032702581021</v>
+        <v>468.55450883641</v>
       </c>
       <c r="F35" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G35" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H35" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I35" t="n">
         <v>86.09345146672877</v>
       </c>
       <c r="J35" t="n">
-        <v>226.1880352922994</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K35" t="n">
-        <v>444.3985098873432</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L35" t="n">
-        <v>721.1044354144767</v>
+        <v>721.1044354144765</v>
       </c>
       <c r="M35" t="n">
         <v>1034.139376672044</v>
@@ -6958,31 +6958,31 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q35" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R35" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S35" t="n">
-        <v>2113.505005925658</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T35" t="n">
-        <v>2113.505005925658</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U35" t="n">
-        <v>2113.505005925658</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="V35" t="n">
-        <v>1756.015591051907</v>
+        <v>1814.026936416759</v>
       </c>
       <c r="W35" t="n">
-        <v>1713.365265742015</v>
+        <v>1417.635586717106</v>
       </c>
       <c r="X35" t="n">
-        <v>1301.645266909762</v>
+        <v>1005.915587884853</v>
       </c>
       <c r="Y35" t="n">
-        <v>896.3079968646525</v>
+        <v>894.5314486885525</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G36" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H36" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I36" t="n">
-        <v>87.60571275360324</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J36" t="n">
-        <v>167.9871870056219</v>
+        <v>277.7415522543613</v>
       </c>
       <c r="K36" t="n">
-        <v>318.0720884929719</v>
+        <v>427.8264537417112</v>
       </c>
       <c r="L36" t="n">
-        <v>527.4071731076615</v>
+        <v>637.1615383564008</v>
       </c>
       <c r="M36" t="n">
-        <v>774.8368342329352</v>
+        <v>884.5911994816745</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.366492570714</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O36" t="n">
-        <v>1477.238310130523</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P36" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R36" t="n">
         <v>1815.841701345204</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>378.7196630201235</v>
+        <v>622.9085244099579</v>
       </c>
       <c r="C37" t="n">
-        <v>206.7470998990395</v>
+        <v>450.9359612888738</v>
       </c>
       <c r="D37" t="n">
-        <v>43.43032702581021</v>
+        <v>287.6191884156445</v>
       </c>
       <c r="E37" t="n">
-        <v>43.43032702581021</v>
+        <v>287.6191884156445</v>
       </c>
       <c r="F37" t="n">
-        <v>43.43032702581021</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="G37" t="n">
-        <v>43.43032702581021</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="H37" t="n">
-        <v>43.43032702581021</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="I37" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J37" t="n">
-        <v>86.23013562371111</v>
+        <v>164.1518522719319</v>
       </c>
       <c r="K37" t="n">
-        <v>169.3817649716271</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L37" t="n">
-        <v>280.6469145595679</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M37" t="n">
-        <v>726.0438905171686</v>
+        <v>1513.618585080953</v>
       </c>
       <c r="N37" t="n">
-        <v>1240.394589572543</v>
+        <v>1930.853118449053</v>
       </c>
       <c r="O37" t="n">
-        <v>1722.234329837428</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P37" t="n">
-        <v>2121.000513751126</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q37" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R37" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S37" t="n">
-        <v>2011.274638730568</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T37" t="n">
-        <v>1771.834171281379</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="U37" t="n">
-        <v>1491.699495722001</v>
+        <v>1737.149082681871</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.98802833003</v>
+        <v>1455.4376152899</v>
       </c>
       <c r="W37" t="n">
-        <v>935.1356245025431</v>
+        <v>1180.585211462413</v>
       </c>
       <c r="X37" t="n">
-        <v>692.5717279483482</v>
+        <v>938.0213149082177</v>
       </c>
       <c r="Y37" t="n">
-        <v>466.2289596380903</v>
+        <v>813.0744931220236</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>746.4421682669391</v>
+        <v>1317.824069503552</v>
       </c>
       <c r="C38" t="n">
-        <v>746.4421682669391</v>
+        <v>1317.824069503552</v>
       </c>
       <c r="D38" t="n">
-        <v>746.4421682669391</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="E38" t="n">
-        <v>320.4652284147967</v>
+        <v>468.55450883641</v>
       </c>
       <c r="F38" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G38" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H38" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I38" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672877</v>
       </c>
       <c r="J38" t="n">
         <v>226.1880352922992</v>
       </c>
       <c r="K38" t="n">
-        <v>444.3985098873432</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L38" t="n">
-        <v>721.1044354144766</v>
+        <v>721.1044354144765</v>
       </c>
       <c r="M38" t="n">
         <v>1034.139376672044</v>
@@ -7195,31 +7195,31 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q38" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R38" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S38" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T38" t="n">
-        <v>1959.495801320582</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U38" t="n">
-        <v>1701.3036335912</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="V38" t="n">
-        <v>1701.3036335912</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="W38" t="n">
-        <v>1304.912283891547</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="X38" t="n">
-        <v>1151.779438312049</v>
+        <v>1759.796352458257</v>
       </c>
       <c r="Y38" t="n">
-        <v>746.4421682669391</v>
+        <v>1737.672433795082</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G39" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H39" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I39" t="n">
-        <v>64.14840690919141</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J39" t="n">
-        <v>144.5298811612101</v>
+        <v>277.7415522543613</v>
       </c>
       <c r="K39" t="n">
-        <v>294.6147826485601</v>
+        <v>427.8264537417112</v>
       </c>
       <c r="L39" t="n">
-        <v>503.9498672632496</v>
+        <v>637.1615383564008</v>
       </c>
       <c r="M39" t="n">
-        <v>751.3795283885233</v>
+        <v>884.5911994816745</v>
       </c>
       <c r="N39" t="n">
-        <v>1007.699321192657</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O39" t="n">
-        <v>1238.571138752467</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P39" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R39" t="n">
         <v>1815.841701345204</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>502.4057592362826</v>
+        <v>1017.817388112657</v>
       </c>
       <c r="C40" t="n">
-        <v>330.4331961151986</v>
+        <v>845.8448249915733</v>
       </c>
       <c r="D40" t="n">
-        <v>167.1164232419693</v>
+        <v>682.528052118344</v>
       </c>
       <c r="E40" t="n">
-        <v>167.1164232419693</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="F40" t="n">
-        <v>43.43032702581021</v>
+        <v>344.4580720457579</v>
       </c>
       <c r="G40" t="n">
-        <v>43.43032702581021</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="H40" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I40" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J40" t="n">
-        <v>86.23013562371111</v>
+        <v>164.1518522719319</v>
       </c>
       <c r="K40" t="n">
-        <v>169.3817649716271</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L40" t="n">
-        <v>280.6469145595679</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M40" t="n">
-        <v>726.0438905171686</v>
+        <v>1513.618585080953</v>
       </c>
       <c r="N40" t="n">
-        <v>1240.394589572543</v>
+        <v>1629.936361294448</v>
       </c>
       <c r="O40" t="n">
-        <v>1722.234329837428</v>
+        <v>1734.073777256129</v>
       </c>
       <c r="P40" t="n">
-        <v>2121.000513751126</v>
+        <v>1969.627016373226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R40" t="n">
         <v>2165.507231779829</v>
       </c>
       <c r="S40" t="n">
-        <v>2011.274638730568</v>
+        <v>2011.274638730567</v>
       </c>
       <c r="T40" t="n">
-        <v>1771.834171281379</v>
+        <v>1951.742425516663</v>
       </c>
       <c r="U40" t="n">
-        <v>1491.699495722001</v>
+        <v>1951.742425516663</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.98802833003</v>
+        <v>1951.742425516663</v>
       </c>
       <c r="W40" t="n">
-        <v>935.1356245025431</v>
+        <v>1676.890021689176</v>
       </c>
       <c r="X40" t="n">
-        <v>692.5717279483482</v>
+        <v>1434.326125134981</v>
       </c>
       <c r="Y40" t="n">
-        <v>692.5717279483482</v>
+        <v>1207.983356824723</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>884.2463647138378</v>
+        <v>892.6998876929524</v>
       </c>
       <c r="C41" t="n">
-        <v>884.2463647138378</v>
+        <v>892.6998876929524</v>
       </c>
       <c r="D41" t="n">
-        <v>460.9537438988381</v>
+        <v>469.4072668779526</v>
       </c>
       <c r="E41" t="n">
-        <v>460.9537438988381</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="F41" t="n">
-        <v>320.4652284147967</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="G41" t="n">
-        <v>320.4652284147967</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="H41" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I41" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672857</v>
       </c>
       <c r="J41" t="n">
         <v>226.1880352922992</v>
@@ -7417,7 +7417,7 @@
         <v>444.398509887343</v>
       </c>
       <c r="L41" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144765</v>
       </c>
       <c r="M41" t="n">
         <v>1034.139376672044</v>
@@ -7435,28 +7435,28 @@
         <v>2080.956330428339</v>
       </c>
       <c r="R41" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S41" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T41" t="n">
-        <v>1959.495801320582</v>
+        <v>1959.00340395424</v>
       </c>
       <c r="U41" t="n">
-        <v>1701.3036335912</v>
+        <v>1700.811236224858</v>
       </c>
       <c r="V41" t="n">
-        <v>1701.3036335912</v>
+        <v>1700.811236224858</v>
       </c>
       <c r="W41" t="n">
-        <v>1701.3036335912</v>
+        <v>1304.419886525205</v>
       </c>
       <c r="X41" t="n">
-        <v>1289.583634758947</v>
+        <v>892.6998876929524</v>
       </c>
       <c r="Y41" t="n">
-        <v>884.2463647138378</v>
+        <v>892.6998876929524</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G42" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H42" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I42" t="n">
-        <v>64.14840690919141</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J42" t="n">
-        <v>144.5298811612101</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K42" t="n">
-        <v>294.6147826485601</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L42" t="n">
-        <v>503.9498672632496</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M42" t="n">
-        <v>751.3795283885233</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N42" t="n">
-        <v>1007.699321192657</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O42" t="n">
-        <v>1238.571138752467</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P42" t="n">
-        <v>1420.724503098659</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R42" t="n">
         <v>1815.841701345204</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>852.4729223127197</v>
+        <v>276.0629909260242</v>
       </c>
       <c r="C43" t="n">
-        <v>680.5003591916357</v>
+        <v>104.0904278049402</v>
       </c>
       <c r="D43" t="n">
-        <v>517.1835863184064</v>
+        <v>104.0904278049402</v>
       </c>
       <c r="E43" t="n">
-        <v>350.9753804712599</v>
+        <v>104.0904278049402</v>
       </c>
       <c r="F43" t="n">
-        <v>179.1136062458203</v>
+        <v>104.0904278049402</v>
       </c>
       <c r="G43" t="n">
-        <v>179.1136062458203</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="H43" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I43" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="J43" t="n">
-        <v>164.151852271932</v>
+        <v>86.23013562371111</v>
       </c>
       <c r="K43" t="n">
-        <v>494.5860907338701</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L43" t="n">
-        <v>605.8512403218109</v>
+        <v>507.4216439224984</v>
       </c>
       <c r="M43" t="n">
-        <v>723.6942110269666</v>
+        <v>1038.800095090476</v>
       </c>
       <c r="N43" t="n">
-        <v>1238.044910082341</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O43" t="n">
-        <v>1570.860832459529</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P43" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q43" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R43" t="n">
-        <v>2171.516351290511</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="S43" t="n">
-        <v>2171.516351290511</v>
+        <v>2011.274638730568</v>
       </c>
       <c r="T43" t="n">
-        <v>1932.075883841321</v>
+        <v>1771.834171281379</v>
       </c>
       <c r="U43" t="n">
-        <v>1651.941208281944</v>
+        <v>1491.699495722001</v>
       </c>
       <c r="V43" t="n">
-        <v>1543.83406316253</v>
+        <v>1209.98802833003</v>
       </c>
       <c r="W43" t="n">
-        <v>1268.981659335043</v>
+        <v>935.1356245025427</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.981659335043</v>
+        <v>692.5717279483478</v>
       </c>
       <c r="Y43" t="n">
-        <v>1042.638891024785</v>
+        <v>466.2289596380898</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>949.9393672542176</v>
+        <v>1321.432178675252</v>
       </c>
       <c r="C44" t="n">
-        <v>870.8593003193911</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="D44" t="n">
-        <v>870.8593003193911</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="E44" t="n">
-        <v>870.8593003193911</v>
+        <v>468.55450883641</v>
       </c>
       <c r="F44" t="n">
-        <v>445.7351185087913</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="G44" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="H44" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I44" t="n">
         <v>86.09345146672854</v>
@@ -7651,10 +7651,10 @@
         <v>226.1880352922992</v>
       </c>
       <c r="K44" t="n">
-        <v>444.3985098873434</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L44" t="n">
-        <v>721.1044354144769</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M44" t="n">
         <v>1034.139376672044</v>
@@ -7663,37 +7663,37 @@
         <v>1352.989294408674</v>
       </c>
       <c r="O44" t="n">
-        <v>1651.903250255483</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P44" t="n">
-        <v>1901.412983312371</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q44" t="n">
         <v>2080.956330428339</v>
       </c>
       <c r="R44" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S44" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T44" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U44" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="V44" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="W44" t="n">
-        <v>1775.125001590857</v>
+        <v>1733.152177507505</v>
       </c>
       <c r="X44" t="n">
-        <v>1775.125001590857</v>
+        <v>1321.432178675252</v>
       </c>
       <c r="Y44" t="n">
-        <v>1369.787731545748</v>
+        <v>1321.432178675252</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>954.6280860161909</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C45" t="n">
-        <v>837.1221825336956</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D45" t="n">
-        <v>733.2822240489807</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E45" t="n">
-        <v>628.5802903219179</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F45" t="n">
-        <v>534.9344600048221</v>
+        <v>179.2598100595152</v>
       </c>
       <c r="G45" t="n">
-        <v>441.969119124852</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H45" t="n">
-        <v>399.1049769711171</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I45" t="n">
-        <v>419.8230568544982</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J45" t="n">
-        <v>500.2045311065169</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K45" t="n">
-        <v>650.2894325938669</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L45" t="n">
-        <v>859.6245172085564</v>
+        <v>527.4071731076615</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.05417833383</v>
+        <v>774.8368342329352</v>
       </c>
       <c r="N45" t="n">
-        <v>1363.373971137964</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O45" t="n">
-        <v>1832.91296007583</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P45" t="n">
-        <v>2015.066324422022</v>
+        <v>1444.181808943071</v>
       </c>
       <c r="Q45" t="n">
-        <v>2128.71915517303</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R45" t="n">
-        <v>2171.516351290511</v>
+        <v>1815.841701345204</v>
       </c>
       <c r="S45" t="n">
-        <v>2110.409230482352</v>
+        <v>1754.734580537045</v>
       </c>
       <c r="T45" t="n">
-        <v>1972.916435127966</v>
+        <v>1617.241785182659</v>
       </c>
       <c r="U45" t="n">
-        <v>1788.219846343815</v>
+        <v>1432.545196398508</v>
       </c>
       <c r="V45" t="n">
-        <v>1583.246707483081</v>
+        <v>1227.572057537774</v>
       </c>
       <c r="W45" t="n">
-        <v>1386.725330316298</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X45" t="n">
-        <v>1223.247984082961</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y45" t="n">
-        <v>1083.555095436254</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="46">
@@ -7782,52 +7782,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>746.3636351974679</v>
+        <v>705.6694270872791</v>
       </c>
       <c r="C46" t="n">
-        <v>746.3636351974679</v>
+        <v>533.6968639661951</v>
       </c>
       <c r="D46" t="n">
-        <v>583.0468623242386</v>
+        <v>533.6968639661951</v>
       </c>
       <c r="E46" t="n">
-        <v>416.8386564770922</v>
+        <v>367.4886581190486</v>
       </c>
       <c r="F46" t="n">
-        <v>416.7851592101528</v>
+        <v>195.6268838936091</v>
       </c>
       <c r="G46" t="n">
-        <v>251.440693410215</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="H46" t="n">
-        <v>115.757414190205</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I46" t="n">
-        <v>43.43032702581021</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="J46" t="n">
         <v>86.23013562371111</v>
       </c>
       <c r="K46" t="n">
-        <v>367.2063020968882</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L46" t="n">
-        <v>854.860345275994</v>
+        <v>657.0358081507329</v>
       </c>
       <c r="M46" t="n">
-        <v>972.7033159811497</v>
+        <v>774.8787788558886</v>
       </c>
       <c r="N46" t="n">
-        <v>1089.021092194644</v>
+        <v>1289.229477911263</v>
       </c>
       <c r="O46" t="n">
-        <v>1570.860832459529</v>
+        <v>1771.069218176148</v>
       </c>
       <c r="P46" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q46" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R46" t="n">
         <v>2165.507231779829</v>
@@ -7836,22 +7836,22 @@
         <v>2011.274638730568</v>
       </c>
       <c r="T46" t="n">
-        <v>1771.834171281379</v>
+        <v>2011.274638730568</v>
       </c>
       <c r="U46" t="n">
-        <v>1771.834171281379</v>
+        <v>1731.13996317119</v>
       </c>
       <c r="V46" t="n">
-        <v>1490.122703889408</v>
+        <v>1449.428495779219</v>
       </c>
       <c r="W46" t="n">
-        <v>1215.270300061921</v>
+        <v>1174.576091951732</v>
       </c>
       <c r="X46" t="n">
-        <v>972.7064035077259</v>
+        <v>932.0121953975371</v>
       </c>
       <c r="Y46" t="n">
-        <v>746.3636351974679</v>
+        <v>705.6694270872791</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0779508869259</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>177.9601089641876</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>172.2192343085097</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>110.8629952007464</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>368.2317638105695</v>
+        <v>252.8510461274956</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="K18" t="n">
-        <v>217.3837025592373</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9336,10 +9336,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>179.2868066531153</v>
+        <v>166.7129468663112</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>241.0779508869251</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>241.0779508869264</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
-        <v>251.5243484385686</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>303.956320358188</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>110.8629952007469</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.077950886926</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,13 +9798,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>179.2868066531153</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>230.3920808838071</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>241.0779508869263</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.077950886926</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>163.6276575410523</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>229.0653831948794</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>110.8629952007469</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0779508869259</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>113.6846655118066</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>166.7129468663112</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>110.8629952007469</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0779508869259</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>162.3009598521255</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>303.9563203581875</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>110.8629952007469</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>217.3837025592372</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>330.8626315681262</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>303.9563203581875</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>110.8629952007469</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>241.0779508869261</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>330.8626315681262</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>151.053797754249</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>241.0779508869259</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>229.0653831948793</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>230.988390318693</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0779508869257</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.8629952007464</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>199.822764772991</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11466,16 +11466,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>266.5871881157447</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -23269,13 +23269,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.2817435681513</v>
+        <v>271.9916946203318</v>
       </c>
       <c r="H11" t="n">
-        <v>124.097137760389</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>209.9003444702288</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8.469122235419235</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H13" t="n">
-        <v>22.95930167446897</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>33.18933919710054</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>59.38825192578548</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>274.2645523750966</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -23560,7 +23560,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>67.15254813788084</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I16" t="n">
         <v>71.60381629275079</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S16" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>95.57139605089625</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23737,19 +23737,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3846180920056099</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.2645523750966</v>
+        <v>181.305457699173</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T17" t="n">
         <v>209.9003444702288</v>
@@ -23791,16 +23791,16 @@
         <v>255.6102460520883</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>54.40056877470276</v>
+        <v>12.66408068693109</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T19" t="n">
         <v>237.0460627746974</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>48.53725547595872</v>
+        <v>341.6146588024989</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>86.37147147557604</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.6910211419383</v>
+        <v>27.69339194955768</v>
       </c>
       <c r="H22" t="n">
         <v>134.3264464278099</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>383.3609061298259</v>
       </c>
       <c r="H23" t="n">
         <v>274.2645523750966</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T23" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>252.5280089600053</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24375,10 +24375,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.917905023711711</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T25" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>255.4168571628262</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>64.9559891994013</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>280.8790784151771</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.0465065236575</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I28" t="n">
         <v>71.60381629275079</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>110.0896567118464</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.4312319112042</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>12.63294980053263</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>102.419218002886</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I31" t="n">
-        <v>71.60381629275079</v>
+        <v>45.81626590236874</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>237.9639677984091</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.2817435681513</v>
+        <v>200.4933406395339</v>
       </c>
       <c r="H32" t="n">
         <v>274.2645523750966</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>53.53394456029069</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>69.31984549581911</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>159.5093153542541</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.2817435681513</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T35" t="n">
         <v>209.9003444702288</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>350.2036141458631</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>291.0135995403208</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.6301053731579</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.6910211419383</v>
@@ -25332,7 +25332,7 @@
         <v>134.3264464278099</v>
       </c>
       <c r="I37" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>100.3819870588232</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.2817435681513</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.4312319112042</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>256.0012817202269</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>379.3812178681156</v>
       </c>
     </row>
     <row r="39">
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>47.69392122918769</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>71.60381629275079</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>178.1091716929317</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>281.7893096632928</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.2817435681513</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>56.94375851852612</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.6910211419383</v>
+        <v>103.6375213705996</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I43" t="n">
         <v>71.60381629275079</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>171.8682790498323</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>344.3424564213547</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H44" t="n">
         <v>274.2645523750966</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.9003444702288</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>15.87813606868582</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.0901941889151</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>13.01642984281744</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>364737.7238049983</v>
+        <v>364737.7238049982</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>364737.7238049982</v>
+        <v>364737.7238049981</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>364737.7238049982</v>
+        <v>364737.723804998</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>364737.7238049983</v>
+        <v>364737.7238049982</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>364737.7238049982</v>
+        <v>364737.7238049981</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>430317.9085594746</v>
+        <v>430317.9085594745</v>
       </c>
       <c r="C2" t="n">
-        <v>430317.9085594747</v>
+        <v>430317.9085594745</v>
       </c>
       <c r="D2" t="n">
-        <v>430327.0649809614</v>
+        <v>430327.0649809615</v>
       </c>
       <c r="E2" t="n">
-        <v>258517.6409104317</v>
+        <v>258517.6409104315</v>
       </c>
       <c r="F2" t="n">
-        <v>258517.6409104316</v>
+        <v>258517.6409104315</v>
       </c>
       <c r="G2" t="n">
         <v>258517.6409104316</v>
       </c>
       <c r="H2" t="n">
-        <v>258517.6409104317</v>
+        <v>258517.6409104315</v>
       </c>
       <c r="I2" t="n">
-        <v>258517.6409104317</v>
+        <v>258517.6409104315</v>
       </c>
       <c r="J2" t="n">
         <v>258517.6409104315</v>
       </c>
       <c r="K2" t="n">
+        <v>258517.6409104315</v>
+      </c>
+      <c r="L2" t="n">
+        <v>258517.6409104315</v>
+      </c>
+      <c r="M2" t="n">
+        <v>258517.6409104315</v>
+      </c>
+      <c r="N2" t="n">
         <v>258517.6409104316</v>
       </c>
-      <c r="L2" t="n">
-        <v>258517.6409104317</v>
-      </c>
-      <c r="M2" t="n">
-        <v>258517.6409104317</v>
-      </c>
-      <c r="N2" t="n">
-        <v>258517.6409104317</v>
-      </c>
       <c r="O2" t="n">
-        <v>258517.6409104317</v>
+        <v>258517.6409104316</v>
       </c>
       <c r="P2" t="n">
-        <v>258517.6409104317</v>
+        <v>258517.6409104315</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>32673.69813039072</v>
       </c>
       <c r="E3" t="n">
-        <v>533917.0150263608</v>
+        <v>533917.0150263606</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>135287.6402017501</v>
+        <v>135287.64020175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>312107.5989109752</v>
       </c>
       <c r="E4" t="n">
+        <v>20495.44494621797</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20495.44494621797</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20495.44494621797</v>
+      </c>
+      <c r="H4" t="n">
         <v>20495.44494621798</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20495.44494621798</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20495.44494621798</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20495.44494621796</v>
       </c>
       <c r="I4" t="n">
         <v>20495.44494621798</v>
       </c>
       <c r="J4" t="n">
-        <v>20495.44494621797</v>
+        <v>20495.44494621798</v>
       </c>
       <c r="K4" t="n">
         <v>20495.44494621798</v>
@@ -26453,7 +26453,7 @@
         <v>20495.44494621798</v>
       </c>
       <c r="N4" t="n">
-        <v>20495.44494621798</v>
+        <v>20495.44494621797</v>
       </c>
       <c r="O4" t="n">
         <v>20495.44494621798</v>
@@ -26478,34 +26478,34 @@
         <v>34459.30828506134</v>
       </c>
       <c r="E5" t="n">
+        <v>43928.07778537245</v>
+      </c>
+      <c r="F5" t="n">
+        <v>43928.07778537245</v>
+      </c>
+      <c r="G5" t="n">
+        <v>43928.07778537245</v>
+      </c>
+      <c r="H5" t="n">
         <v>43928.07778537246</v>
-      </c>
-      <c r="F5" t="n">
-        <v>43928.07778537246</v>
-      </c>
-      <c r="G5" t="n">
-        <v>43928.07778537246</v>
-      </c>
-      <c r="H5" t="n">
-        <v>43928.07778537247</v>
       </c>
       <c r="I5" t="n">
         <v>43928.07778537246</v>
       </c>
       <c r="J5" t="n">
+        <v>43928.07778537246</v>
+      </c>
+      <c r="K5" t="n">
         <v>43928.07778537245</v>
       </c>
-      <c r="K5" t="n">
-        <v>43928.07778537246</v>
-      </c>
       <c r="L5" t="n">
-        <v>43928.07778537246</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="M5" t="n">
-        <v>43928.07778537246</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="N5" t="n">
-        <v>43928.07778537246</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="O5" t="n">
         <v>43928.07778537246</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73951.23027729132</v>
+        <v>73929.51663579485</v>
       </c>
       <c r="C6" t="n">
-        <v>73951.23027729144</v>
+        <v>73929.51663579479</v>
       </c>
       <c r="D6" t="n">
-        <v>51086.45965453418</v>
+        <v>51064.77653444291</v>
       </c>
       <c r="E6" t="n">
-        <v>-339822.8968475196</v>
+        <v>-340417.278047846</v>
       </c>
       <c r="F6" t="n">
-        <v>194094.1181788412</v>
+        <v>193499.7369785147</v>
       </c>
       <c r="G6" t="n">
-        <v>194094.1181788412</v>
+        <v>193499.7369785147</v>
       </c>
       <c r="H6" t="n">
-        <v>194094.1181788412</v>
+        <v>193499.7369785146</v>
       </c>
       <c r="I6" t="n">
-        <v>194094.1181788412</v>
+        <v>193499.7369785146</v>
       </c>
       <c r="J6" t="n">
-        <v>194094.1181788411</v>
+        <v>193499.7369785146</v>
       </c>
       <c r="K6" t="n">
-        <v>194094.1181788412</v>
+        <v>193499.7369785146</v>
       </c>
       <c r="L6" t="n">
-        <v>194094.1181788412</v>
+        <v>193499.7369785147</v>
       </c>
       <c r="M6" t="n">
-        <v>58806.47797709116</v>
+        <v>58212.09677676461</v>
       </c>
       <c r="N6" t="n">
-        <v>194094.1181788412</v>
+        <v>193499.7369785147</v>
       </c>
       <c r="O6" t="n">
-        <v>194094.1181788413</v>
+        <v>193499.7369785147</v>
       </c>
       <c r="P6" t="n">
-        <v>194094.1181788412</v>
+        <v>193499.7369785147</v>
       </c>
     </row>
   </sheetData>
@@ -26755,25 +26755,25 @@
         <v>500.9646443007663</v>
       </c>
       <c r="H3" t="n">
-        <v>500.9646443007665</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="I3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="J3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="K3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="L3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="M3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="N3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="O3" t="n">
         <v>500.9646443007663</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="F4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="G4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="H4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226275</v>
       </c>
       <c r="I4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226275</v>
       </c>
       <c r="J4" t="n">
+        <v>542.8790878226275</v>
+      </c>
+      <c r="K4" t="n">
         <v>542.8790878226274</v>
       </c>
-      <c r="K4" t="n">
-        <v>542.8790878226276</v>
-      </c>
       <c r="L4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="M4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="N4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="O4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226275</v>
       </c>
       <c r="P4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226275</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.8790878226275</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H20" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I20" t="n">
-        <v>77.64196763580023</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J20" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K20" t="n">
-        <v>256.179221597884</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L20" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M20" t="n">
-        <v>353.6281732606109</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N20" t="n">
-        <v>359.3502468108403</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O20" t="n">
-        <v>339.324248090174</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P20" t="n">
-        <v>289.6053952010275</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q20" t="n">
-        <v>217.4815908833544</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R20" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S20" t="n">
-        <v>45.89238927438682</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T20" t="n">
-        <v>8.815970775584342</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U20" t="n">
         <v>0.1611142574635629</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.077546593401649</v>
+        <v>1.077546593401648</v>
       </c>
       <c r="H21" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I21" t="n">
-        <v>37.09974016755677</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J21" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K21" t="n">
-        <v>174.0001444266163</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L21" t="n">
-        <v>233.964667133108</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M21" t="n">
-        <v>273.0257311439177</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N21" t="n">
-        <v>280.2519098338788</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O21" t="n">
-        <v>256.3757458432423</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P21" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q21" t="n">
-        <v>137.5478774314105</v>
+        <v>137.5478774314104</v>
       </c>
       <c r="R21" t="n">
-        <v>66.90241042190239</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S21" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T21" t="n">
-        <v>4.343268944456644</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07089122325010849</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.903378866771874</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H22" t="n">
-        <v>8.031859379117213</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I22" t="n">
-        <v>27.167066284376</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J22" t="n">
-        <v>63.86888588077149</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K22" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L22" t="n">
-        <v>134.3077998835203</v>
+        <v>134.3077998835202</v>
       </c>
       <c r="M22" t="n">
-        <v>141.6087436340675</v>
+        <v>141.6087436340674</v>
       </c>
       <c r="N22" t="n">
         <v>138.2416042215542</v>
       </c>
       <c r="O22" t="n">
-        <v>127.6884965506282</v>
+        <v>127.6884965506281</v>
       </c>
       <c r="P22" t="n">
-        <v>109.2595676684819</v>
+        <v>109.2595676684818</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.64566128941574</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R22" t="n">
-        <v>40.61919886412443</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S22" t="n">
-        <v>15.74342988728802</v>
+        <v>15.74342988728801</v>
       </c>
       <c r="T22" t="n">
-        <v>3.859891521661642</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04927521091482955</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H23" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I23" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J23" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K23" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L23" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M23" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N23" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O23" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P23" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q23" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R23" t="n">
         <v>126.5074184424443</v>
@@ -32739,7 +32739,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T23" t="n">
-        <v>8.815970775584338</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U23" t="n">
         <v>0.1611142574635629</v>
@@ -32785,43 +32785,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I24" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J24" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K24" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L24" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M24" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N24" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O24" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P24" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q24" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R24" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S24" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T24" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9033788667718736</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H25" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I25" t="n">
-        <v>27.16706628437599</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J25" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K25" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L25" t="n">
         <v>134.3077998835202</v>
@@ -32888,7 +32888,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q25" t="n">
-        <v>75.64566128941571</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R25" t="n">
         <v>40.61919886412441</v>
@@ -32897,7 +32897,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T25" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U25" t="n">
         <v>0.04927521091482952</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H26" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I26" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J26" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K26" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L26" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M26" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N26" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O26" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P26" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q26" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R26" t="n">
         <v>126.5074184424443</v>
@@ -32976,7 +32976,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T26" t="n">
-        <v>8.815970775584338</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U26" t="n">
         <v>0.1611142574635629</v>
@@ -33022,43 +33022,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I27" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J27" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K27" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L27" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M27" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N27" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O27" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P27" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q27" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R27" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S27" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T27" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9033788667718736</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H28" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I28" t="n">
-        <v>27.16706628437599</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J28" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K28" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L28" t="n">
         <v>134.3077998835202</v>
@@ -33125,7 +33125,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.64566128941571</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R28" t="n">
         <v>40.61919886412441</v>
@@ -33134,7 +33134,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T28" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U28" t="n">
         <v>0.04927521091482952</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H29" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I29" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J29" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K29" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L29" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M29" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N29" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O29" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P29" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q29" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R29" t="n">
         <v>126.5074184424443</v>
@@ -33213,7 +33213,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T29" t="n">
-        <v>8.815970775584338</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U29" t="n">
         <v>0.1611142574635629</v>
@@ -33259,43 +33259,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I30" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J30" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K30" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L30" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M30" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N30" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O30" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P30" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q30" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R30" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S30" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T30" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9033788667718736</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H31" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I31" t="n">
-        <v>27.16706628437599</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J31" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K31" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L31" t="n">
         <v>134.3077998835202</v>
@@ -33362,7 +33362,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.64566128941571</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R31" t="n">
         <v>40.61919886412441</v>
@@ -33371,7 +33371,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T31" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U31" t="n">
         <v>0.04927521091482952</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H32" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I32" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J32" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K32" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L32" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M32" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N32" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O32" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P32" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q32" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R32" t="n">
         <v>126.5074184424443</v>
@@ -33450,7 +33450,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T32" t="n">
-        <v>8.815970775584338</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U32" t="n">
         <v>0.1611142574635629</v>
@@ -33496,43 +33496,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I33" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J33" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K33" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L33" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M33" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N33" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O33" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P33" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q33" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R33" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S33" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T33" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9033788667718736</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H34" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I34" t="n">
-        <v>27.16706628437599</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J34" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K34" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L34" t="n">
         <v>134.3077998835202</v>
@@ -33599,7 +33599,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.64566128941571</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R34" t="n">
         <v>40.61919886412441</v>
@@ -33608,7 +33608,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T34" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U34" t="n">
         <v>0.04927521091482952</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H35" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I35" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J35" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K35" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L35" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M35" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N35" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O35" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P35" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q35" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R35" t="n">
         <v>126.5074184424443</v>
@@ -33687,7 +33687,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T35" t="n">
-        <v>8.815970775584338</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U35" t="n">
         <v>0.1611142574635629</v>
@@ -33733,43 +33733,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I36" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J36" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K36" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L36" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M36" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N36" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O36" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P36" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q36" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R36" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S36" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T36" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9033788667718736</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H37" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I37" t="n">
-        <v>27.16706628437599</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J37" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K37" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L37" t="n">
         <v>134.3077998835202</v>
@@ -33836,7 +33836,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q37" t="n">
-        <v>75.64566128941571</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R37" t="n">
         <v>40.61919886412441</v>
@@ -33845,7 +33845,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T37" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U37" t="n">
         <v>0.04927521091482952</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H38" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I38" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J38" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K38" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L38" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M38" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N38" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O38" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P38" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q38" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R38" t="n">
         <v>126.5074184424443</v>
@@ -33924,7 +33924,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T38" t="n">
-        <v>8.815970775584338</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U38" t="n">
         <v>0.1611142574635629</v>
@@ -33970,43 +33970,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I39" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J39" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K39" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L39" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M39" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N39" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O39" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P39" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q39" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R39" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S39" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T39" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9033788667718736</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H40" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I40" t="n">
-        <v>27.16706628437599</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J40" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K40" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L40" t="n">
         <v>134.3077998835202</v>
@@ -34073,7 +34073,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q40" t="n">
-        <v>75.64566128941571</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R40" t="n">
         <v>40.61919886412441</v>
@@ -34082,7 +34082,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T40" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U40" t="n">
         <v>0.04927521091482952</v>
@@ -34128,7 +34128,7 @@
         <v>20.62514236560893</v>
       </c>
       <c r="I41" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580023</v>
       </c>
       <c r="J41" t="n">
         <v>170.9296401174761</v>
@@ -34371,7 +34371,7 @@
         <v>170.9296401174761</v>
       </c>
       <c r="K44" t="n">
-        <v>256.1792215978844</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L44" t="n">
         <v>317.8129773085154</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J12" t="n">
-        <v>81.19340833537242</v>
+        <v>192.056403536119</v>
       </c>
       <c r="K12" t="n">
         <v>151.6009105932828</v>
@@ -35503,7 +35503,7 @@
         <v>258.908881620337</v>
       </c>
       <c r="O12" t="n">
-        <v>474.2818070079459</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P12" t="n">
         <v>183.9932973193861</v>
@@ -35512,7 +35512,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R12" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.23212989686959</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K13" t="n">
         <v>83.99154479587476</v>
       </c>
       <c r="L13" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M13" t="n">
-        <v>296.9934127067692</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N13" t="n">
-        <v>519.5461606619943</v>
+        <v>289.7119375544635</v>
       </c>
       <c r="O13" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P13" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q13" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>44.62160174524548</v>
       </c>
       <c r="J15" t="n">
-        <v>81.19340833537242</v>
+        <v>192.056403536119</v>
       </c>
       <c r="K15" t="n">
         <v>151.6009105932828</v>
@@ -35740,7 +35740,7 @@
         <v>258.908881620337</v>
       </c>
       <c r="O15" t="n">
-        <v>344.0668513217664</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P15" t="n">
         <v>183.9932973193861</v>
@@ -35810,22 +35810,22 @@
         <v>333.7719580423617</v>
       </c>
       <c r="L16" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M16" t="n">
-        <v>536.7459102706844</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N16" t="n">
         <v>117.4927032459538</v>
       </c>
       <c r="O16" t="n">
-        <v>473.4210728627732</v>
+        <v>358.0403551796992</v>
       </c>
       <c r="P16" t="n">
         <v>402.7941251653515</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.02609852463077</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>44.62160174524548</v>
       </c>
       <c r="J18" t="n">
-        <v>81.19340833537242</v>
+        <v>192.056403536119</v>
       </c>
       <c r="K18" t="n">
-        <v>368.9846131525201</v>
+        <v>151.6009105932828</v>
       </c>
       <c r="L18" t="n">
         <v>211.4495804188784</v>
@@ -35986,7 +35986,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R18" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.23212989686959</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K19" t="n">
-        <v>83.99154479587476</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L19" t="n">
         <v>492.5798415950563</v>
@@ -36056,10 +36056,10 @@
         <v>519.5461606619943</v>
       </c>
       <c r="O19" t="n">
-        <v>284.476115705319</v>
+        <v>271.9022559185149</v>
       </c>
       <c r="P19" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q19" t="n">
         <v>203.9286211285692</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>43.09406509183673</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J20" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K20" t="n">
-        <v>220.4146208030746</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L20" t="n">
-        <v>279.5009348758925</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M20" t="n">
-        <v>316.1969103611791</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N20" t="n">
-        <v>322.0706239763943</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O20" t="n">
-        <v>301.9332887341499</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P20" t="n">
-        <v>252.0300333907962</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q20" t="n">
-        <v>181.3569162787563</v>
+        <v>181.3569162787562</v>
       </c>
       <c r="R20" t="n">
-        <v>91.47476854764787</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.92735341755677</v>
+        <v>20.92735341755675</v>
       </c>
       <c r="J21" t="n">
-        <v>81.19340833537245</v>
+        <v>81.1934083353724</v>
       </c>
       <c r="K21" t="n">
-        <v>151.6009105932829</v>
+        <v>151.6009105932828</v>
       </c>
       <c r="L21" t="n">
-        <v>452.5275313058036</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M21" t="n">
-        <v>249.9289506315897</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N21" t="n">
-        <v>258.9088816203371</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O21" t="n">
-        <v>233.20385612102</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P21" t="n">
-        <v>183.9932973193862</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q21" t="n">
-        <v>114.800839142432</v>
+        <v>355.8787900293583</v>
       </c>
       <c r="R21" t="n">
-        <v>43.22949102775824</v>
+        <v>43.22949102775821</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>333.7719580423617</v>
       </c>
       <c r="L22" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M22" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N22" t="n">
-        <v>369.0170516845224</v>
+        <v>117.4927032459538</v>
       </c>
       <c r="O22" t="n">
-        <v>486.7068083483687</v>
+        <v>409.1456294103917</v>
       </c>
       <c r="P22" t="n">
-        <v>402.7941251653516</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q22" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,25 +36354,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J23" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K23" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L23" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M23" t="n">
         <v>316.1969103611789</v>
       </c>
       <c r="N23" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O23" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P23" t="n">
         <v>252.0300333907961</v>
@@ -36381,7 +36381,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R23" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J24" t="n">
-        <v>81.19340833537242</v>
+        <v>192.0564035361193</v>
       </c>
       <c r="K24" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L24" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M24" t="n">
         <v>249.9289506315896</v>
       </c>
       <c r="N24" t="n">
-        <v>499.986832507263</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O24" t="n">
         <v>233.2038561210199</v>
@@ -36460,7 +36460,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R24" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.23212989686959</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K25" t="n">
-        <v>263.2783514489901</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L25" t="n">
         <v>492.5798415950563</v>
       </c>
       <c r="M25" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N25" t="n">
         <v>519.5461606619943</v>
@@ -36533,10 +36533,10 @@
         <v>105.1893090522037</v>
       </c>
       <c r="P25" t="n">
-        <v>402.7941251653515</v>
+        <v>317.2708478943024</v>
       </c>
       <c r="Q25" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J26" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K26" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L26" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M26" t="n">
         <v>316.1969103611789</v>
       </c>
       <c r="N26" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O26" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P26" t="n">
         <v>252.0300333907961</v>
@@ -36618,7 +36618,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R26" t="n">
-        <v>91.47476854764781</v>
+        <v>91.4747685476478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.92735341755676</v>
+        <v>20.92735341755675</v>
       </c>
       <c r="J27" t="n">
-        <v>81.19340833537242</v>
+        <v>322.2713592222987</v>
       </c>
       <c r="K27" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L27" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M27" t="n">
-        <v>491.0069015185156</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N27" t="n">
         <v>258.908881620337</v>
@@ -36697,7 +36697,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R27" t="n">
-        <v>43.22949102775823</v>
+        <v>43.22949102775821</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.23212989686959</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K28" t="n">
-        <v>247.6192023369271</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L28" t="n">
-        <v>492.5798415950563</v>
+        <v>341.4544231826984</v>
       </c>
       <c r="M28" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N28" t="n">
-        <v>117.4927032459538</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O28" t="n">
-        <v>105.1893090522037</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P28" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q28" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J29" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K29" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L29" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M29" t="n">
         <v>316.1969103611789</v>
       </c>
       <c r="N29" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O29" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P29" t="n">
         <v>252.0300333907961</v>
@@ -36855,7 +36855,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R29" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J30" t="n">
-        <v>81.19340833537242</v>
+        <v>192.0564035361193</v>
       </c>
       <c r="K30" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L30" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M30" t="n">
         <v>249.9289506315896</v>
@@ -36925,7 +36925,7 @@
         <v>258.908881620337</v>
       </c>
       <c r="O30" t="n">
-        <v>474.2818070079459</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P30" t="n">
         <v>183.9932973193861</v>
@@ -36934,7 +36934,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R30" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.23212989686959</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K31" t="n">
-        <v>83.99154479587476</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L31" t="n">
         <v>492.5798415950563</v>
       </c>
       <c r="M31" t="n">
-        <v>232.7179692543882</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N31" t="n">
         <v>519.5461606619943</v>
       </c>
       <c r="O31" t="n">
-        <v>486.7068083483686</v>
+        <v>271.9022559185149</v>
       </c>
       <c r="P31" t="n">
-        <v>86.87876701049535</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q31" t="n">
         <v>203.9286211285692</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J32" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K32" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L32" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M32" t="n">
         <v>316.1969103611789</v>
       </c>
       <c r="N32" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O32" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P32" t="n">
         <v>252.0300333907961</v>
@@ -37092,7 +37092,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R32" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J33" t="n">
-        <v>81.19340833537242</v>
+        <v>192.0564035361193</v>
       </c>
       <c r="K33" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L33" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M33" t="n">
         <v>249.9289506315896</v>
@@ -37162,7 +37162,7 @@
         <v>258.908881620337</v>
       </c>
       <c r="O33" t="n">
-        <v>474.2818070079459</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P33" t="n">
         <v>183.9932973193861</v>
@@ -37171,7 +37171,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R33" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.23212989686959</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K34" t="n">
-        <v>83.99154479587476</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L34" t="n">
-        <v>274.6899998399445</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M34" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N34" t="n">
-        <v>117.4927032459538</v>
+        <v>421.4490236041412</v>
       </c>
       <c r="O34" t="n">
-        <v>486.7068083483686</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P34" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q34" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J35" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K35" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L35" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M35" t="n">
         <v>316.1969103611789</v>
       </c>
       <c r="N35" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O35" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P35" t="n">
         <v>252.0300333907961</v>
@@ -37329,7 +37329,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R35" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>44.62160174524548</v>
       </c>
       <c r="J36" t="n">
-        <v>81.19340833537242</v>
+        <v>192.0564035361193</v>
       </c>
       <c r="K36" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L36" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M36" t="n">
         <v>249.9289506315896</v>
       </c>
       <c r="N36" t="n">
-        <v>476.2925841795742</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O36" t="n">
         <v>233.2038561210199</v>
@@ -37408,7 +37408,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R36" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.23212989686959</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K37" t="n">
-        <v>83.99154479587476</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L37" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M37" t="n">
-        <v>449.8959353107078</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N37" t="n">
-        <v>519.5461606619943</v>
+        <v>421.4490236041412</v>
       </c>
       <c r="O37" t="n">
-        <v>486.7068083483686</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P37" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.02609852463077</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,25 +37539,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J38" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K38" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L38" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M38" t="n">
         <v>316.1969103611789</v>
       </c>
       <c r="N38" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O38" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P38" t="n">
         <v>252.0300333907961</v>
@@ -37566,7 +37566,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R38" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J39" t="n">
-        <v>81.19340833537242</v>
+        <v>192.0564035361193</v>
       </c>
       <c r="K39" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L39" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M39" t="n">
         <v>249.9289506315896</v>
@@ -37639,13 +37639,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P39" t="n">
-        <v>425.0712482063122</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q39" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R39" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.23212989686959</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K40" t="n">
-        <v>83.99154479587476</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L40" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M40" t="n">
-        <v>449.8959353107078</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N40" t="n">
-        <v>519.5461606619943</v>
+        <v>117.4927032459538</v>
       </c>
       <c r="O40" t="n">
-        <v>486.7068083483686</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P40" t="n">
-        <v>402.7941251653515</v>
+        <v>237.9325647647443</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.02609852463077</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183673</v>
       </c>
       <c r="J41" t="n">
         <v>141.5096806318896</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J42" t="n">
-        <v>81.19340833537242</v>
+        <v>192.056403536119</v>
       </c>
       <c r="K42" t="n">
         <v>151.6009105932828</v>
@@ -37879,10 +37879,10 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q42" t="n">
-        <v>355.8787900293578</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R42" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686959</v>
       </c>
       <c r="K43" t="n">
-        <v>333.7719580423617</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L43" t="n">
-        <v>112.389039987819</v>
+        <v>341.4544231826983</v>
       </c>
       <c r="M43" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N43" t="n">
         <v>519.5461606619943</v>
       </c>
       <c r="O43" t="n">
-        <v>336.1776993708967</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P43" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q43" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>141.5096806318896</v>
       </c>
       <c r="K44" t="n">
-        <v>220.414620803075</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L44" t="n">
         <v>279.5009348758924</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J45" t="n">
         <v>81.19340833537242</v>
@@ -38110,16 +38110,16 @@
         <v>258.908881620337</v>
       </c>
       <c r="O45" t="n">
-        <v>474.2818070079456</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P45" t="n">
         <v>183.9932973193861</v>
       </c>
       <c r="Q45" t="n">
-        <v>114.8008391424319</v>
+        <v>225.6638343431784</v>
       </c>
       <c r="R45" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>43.23212989686959</v>
       </c>
       <c r="K46" t="n">
-        <v>283.8143095688657</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L46" t="n">
         <v>492.5798415950563</v>
@@ -38186,16 +38186,16 @@
         <v>119.0333037425816</v>
       </c>
       <c r="N46" t="n">
-        <v>117.4927032459538</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O46" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P46" t="n">
-        <v>402.7941251653515</v>
+        <v>353.46595512624</v>
       </c>
       <c r="Q46" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
